--- a/DFs.xlsx
+++ b/DFs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\My Works\My Py Scripts\Git Repos\23_Regression of Used Car Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D0EF4-E15B-4159-B8FE-95FF9E48AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E6FE7-F2F2-4A4C-8B9A-F840684F4F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63B00AD0-47E4-4806-8A0A-E94FB28653F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>train_df_dropped</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>9 B</t>
+  </si>
+  <si>
+    <t>train_df_simple_imputed_broken_with_engine</t>
+  </si>
+  <si>
+    <t>test_df_simple_imputed_broken_with_engine</t>
   </si>
 </sst>
 </file>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2436A50-4378-4660-9520-61282C6771C5}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +976,16 @@
         <v>77</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>78</v>
